--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>440.8118820395945</v>
+        <v>847.3090666749088</v>
       </c>
       <c r="C2">
-        <v>5.95234497164855</v>
+        <v>11.44133374789931</v>
       </c>
       <c r="D2">
-        <v>60.61685241311514</v>
+        <v>116.5150276922752</v>
       </c>
       <c r="E2">
-        <v>8.589853856563556</v>
+        <v>16.51103645483174</v>
       </c>
       <c r="F2">
-        <v>18.29987576770886</v>
+        <v>35.17521030799129</v>
       </c>
       <c r="G2">
-        <v>261.5460685525003</v>
+        <v>502.7322635051053</v>
       </c>
       <c r="H2">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I2">
-        <v>802.8417693135962</v>
+        <v>1543.186873950086</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>452.6838648111525</v>
+        <v>870.1288658944906</v>
       </c>
       <c r="C3">
-        <v>7.054631077509393</v>
+        <v>13.56009925676955</v>
       </c>
       <c r="D3">
-        <v>46.62834801008859</v>
+        <v>89.62694437867329</v>
       </c>
       <c r="E3">
-        <v>11.81104905277489</v>
+        <v>22.70267512539364</v>
       </c>
       <c r="F3">
-        <v>15.86942351731003</v>
+        <v>30.5035026889612</v>
       </c>
       <c r="G3">
-        <v>222.4644721021267</v>
+        <v>427.6113505675609</v>
       </c>
       <c r="H3">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I3">
-        <v>759.5224564477329</v>
+        <v>1459.920410297738</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>457.3294232869798</v>
+        <v>879.0583525456311</v>
       </c>
       <c r="C4">
-        <v>8.377374404542405</v>
+        <v>16.10261786741384</v>
       </c>
       <c r="D4">
-        <v>49.73690454409449</v>
+        <v>95.60207400391813</v>
       </c>
       <c r="E4">
-        <v>11.81104905277489</v>
+        <v>22.70267512539364</v>
       </c>
       <c r="F4">
-        <v>15.1545846201339</v>
+        <v>29.12947103630528</v>
       </c>
       <c r="G4">
-        <v>246.5146853023566</v>
+        <v>473.8396046829731</v>
       </c>
       <c r="H4">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I4">
-        <v>790.9311331287294</v>
+        <v>1520.292776852227</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>535.78774421206</v>
+        <v>1029.867460431564</v>
       </c>
       <c r="C5">
-        <v>7.495545519853731</v>
+        <v>14.40760546031765</v>
       </c>
       <c r="D5">
-        <v>69.94252201513289</v>
+        <v>134.4404165680099</v>
       </c>
       <c r="E5">
-        <v>16.10597598105666</v>
+        <v>30.95819335280953</v>
       </c>
       <c r="F5">
-        <v>19.72955356206111</v>
+        <v>37.9232736133031</v>
       </c>
       <c r="G5">
-        <v>258.5397919024716</v>
+        <v>496.9537317406788</v>
       </c>
       <c r="H5">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I5">
-        <v>915.629580864025</v>
+        <v>1759.982607529054</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>524.9481077684629</v>
+        <v>1009.031991578903</v>
       </c>
       <c r="C6">
-        <v>6.393259413992886</v>
+        <v>12.28883995144741</v>
       </c>
       <c r="D6">
-        <v>62.17113068011811</v>
+        <v>119.5025925048977</v>
       </c>
       <c r="E6">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F6">
-        <v>19.15768244432021</v>
+        <v>36.82404829117839</v>
       </c>
       <c r="G6">
-        <v>261.5460685525003</v>
+        <v>502.7322635051053</v>
       </c>
       <c r="H6">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I6">
-        <v>894.196097129852</v>
+        <v>1718.784114842411</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>597.7285238897548</v>
+        <v>1148.927282446774</v>
       </c>
       <c r="C7">
-        <v>6.172802192820717</v>
+        <v>11.86508684967336</v>
       </c>
       <c r="D7">
-        <v>66.83396548112697</v>
+        <v>128.465286942765</v>
       </c>
       <c r="E7">
-        <v>15.03224424898622</v>
+        <v>28.89431379595554</v>
       </c>
       <c r="F7">
-        <v>15.7264557378748</v>
+        <v>30.22869635843002</v>
       </c>
       <c r="G7">
-        <v>231.4833020522128</v>
+        <v>444.9469458608403</v>
       </c>
       <c r="H7">
-        <v>10.0355595892362</v>
+        <v>19.289907952963</v>
       </c>
       <c r="I7">
-        <v>943.0128531920126</v>
+        <v>1812.617520207401</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>663.7986888792956</v>
+        <v>1275.924425929664</v>
       </c>
       <c r="C8">
-        <v>4.850058865787707</v>
+        <v>9.322568239029067</v>
       </c>
       <c r="D8">
-        <v>91.70241775317425</v>
+        <v>176.2663239447241</v>
       </c>
       <c r="E8">
-        <v>24.69582983762022</v>
+        <v>47.46922980764123</v>
       </c>
       <c r="F8">
-        <v>16.87019797335661</v>
+        <v>32.42714700267947</v>
       </c>
       <c r="G8">
-        <v>162.3389391015519</v>
+        <v>312.040715279031</v>
       </c>
       <c r="H8">
-        <v>11.03911554815982</v>
+        <v>21.2188987482593</v>
       </c>
       <c r="I8">
-        <v>975.295247958946</v>
+        <v>1874.669308951028</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>769.6141874953576</v>
+        <v>1479.318288538982</v>
       </c>
       <c r="C9">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D9">
-        <v>76.15963508314472</v>
+        <v>146.3906758184996</v>
       </c>
       <c r="E9">
-        <v>30.06448849797244</v>
+        <v>57.78862759191108</v>
       </c>
       <c r="F9">
-        <v>8.292131207243077</v>
+        <v>15.93876717080855</v>
       </c>
       <c r="G9">
-        <v>141.2950025513507</v>
+        <v>271.5909929280455</v>
       </c>
       <c r="H9">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I9">
-        <v>1032.526069767173</v>
+        <v>1984.675858654268</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>862.0091838479188</v>
+        <v>1656.915856378335</v>
       </c>
       <c r="C10">
-        <v>2.865943875238191</v>
+        <v>5.50879032306263</v>
       </c>
       <c r="D10">
-        <v>48.18262627709154</v>
+        <v>92.6145091912957</v>
       </c>
       <c r="E10">
-        <v>44.02300101488821</v>
+        <v>84.61906183101269</v>
       </c>
       <c r="F10">
-        <v>5.575743397973794</v>
+        <v>10.71744689071609</v>
       </c>
       <c r="G10">
-        <v>159.3326624515232</v>
+        <v>306.2621835146045</v>
       </c>
       <c r="H10">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I10">
-        <v>1123.996272782481</v>
+        <v>2160.495829719619</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>599.2770433816967</v>
+        <v>1151.903777997154</v>
       </c>
       <c r="C11">
-        <v>3.747772759926865</v>
+        <v>7.203802730158825</v>
       </c>
       <c r="D11">
-        <v>24.86845227204724</v>
+        <v>47.80103700195907</v>
       </c>
       <c r="E11">
-        <v>42.94926928281777</v>
+        <v>82.55518227415874</v>
       </c>
       <c r="F11">
-        <v>5.718711177409018</v>
+        <v>10.99225322124727</v>
       </c>
       <c r="G11">
-        <v>162.3389391015519</v>
+        <v>312.040715279031</v>
       </c>
       <c r="H11">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I11">
-        <v>840.9072998932967</v>
+        <v>1616.354750094302</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>475.3954840263077</v>
+        <v>913.7841339667343</v>
       </c>
       <c r="C12">
-        <v>4.62960164461554</v>
+        <v>8.898815137255019</v>
       </c>
       <c r="D12">
-        <v>37.30267840807088</v>
+        <v>71.70155550293863</v>
       </c>
       <c r="E12">
-        <v>32.21195196211333</v>
+        <v>61.91638670561906</v>
       </c>
       <c r="F12">
-        <v>3.860130044751088</v>
+        <v>7.419770924341911</v>
       </c>
       <c r="G12">
-        <v>225.4707487521555</v>
+        <v>433.3898823319872</v>
       </c>
       <c r="I12">
-        <v>778.8705948380139</v>
+        <v>1497.110544568876</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>420.6811286443439</v>
+        <v>808.6146245199661</v>
       </c>
       <c r="C13">
-        <v>4.850058865787707</v>
+        <v>9.322568239029067</v>
       </c>
       <c r="D13">
-        <v>27.97700880605315</v>
+        <v>53.77616662720394</v>
       </c>
       <c r="E13">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F13">
-        <v>4.003097824186313</v>
+        <v>7.69457725487309</v>
       </c>
       <c r="G13">
-        <v>132.2761726012645</v>
+        <v>254.2553976347659</v>
       </c>
       <c r="I13">
-        <v>600.5247840623401</v>
+        <v>1154.302129844378</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>266.8615257780683</v>
+        <v>512.949399848862</v>
       </c>
       <c r="C14">
-        <v>3.968229981099034</v>
+        <v>7.627555831932874</v>
       </c>
       <c r="D14">
-        <v>20.20561747103839</v>
+        <v>38.83834256409175</v>
       </c>
       <c r="E14">
-        <v>16.10597598105666</v>
+        <v>30.95819335280953</v>
       </c>
       <c r="F14">
-        <v>3.288258927010186</v>
+        <v>6.320545602217181</v>
       </c>
       <c r="G14">
-        <v>153.3201091514657</v>
+        <v>294.7051199857515</v>
       </c>
       <c r="I14">
-        <v>463.7497172897383</v>
+        <v>891.3991571856648</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>169.304797785699</v>
+        <v>325.4301801749066</v>
       </c>
       <c r="C15">
-        <v>3.968229981099034</v>
+        <v>7.627555831932874</v>
       </c>
       <c r="D15">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="E15">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F15">
-        <v>1.572645573787479</v>
+        <v>3.022869635843001</v>
       </c>
       <c r="G15">
-        <v>111.2322360510634</v>
+        <v>213.8056752837805</v>
       </c>
       <c r="I15">
-        <v>300.4043297812917</v>
+        <v>577.4238913760159</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>83.10387940090722</v>
+        <v>159.738594537073</v>
       </c>
       <c r="C16">
-        <v>3.747772759926865</v>
+        <v>7.203802730158825</v>
       </c>
       <c r="D16">
-        <v>1.554278267002953</v>
+        <v>2.987564812622442</v>
       </c>
       <c r="E16">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F16">
-        <v>2.859355588704509</v>
+        <v>5.496126610623636</v>
       </c>
       <c r="G16">
-        <v>105.2196827510059</v>
+        <v>202.2486117549275</v>
       </c>
       <c r="H16">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I16">
-        <v>205.0046468509641</v>
+        <v>394.0508481386795</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>58.84374069381003</v>
+        <v>113.1068309144493</v>
       </c>
       <c r="C17">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D17">
-        <v>3.108556534005905</v>
+        <v>5.975129625244883</v>
       </c>
       <c r="E17">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F17">
-        <v>3.002323368139735</v>
+        <v>5.77093294115482</v>
       </c>
       <c r="G17">
-        <v>102.2134061009771</v>
+        <v>196.4700799905009</v>
       </c>
       <c r="I17">
-        <v>173.4470686157641</v>
+        <v>333.3922696147322</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>40.77767995448236</v>
+        <v>78.38104949334642</v>
       </c>
       <c r="C18">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D18">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="F18">
-        <v>2.573420029834059</v>
+        <v>4.946513949561273</v>
       </c>
       <c r="G18">
-        <v>90.18829950086217</v>
+        <v>173.3559529327949</v>
       </c>
       <c r="I18">
-        <v>139.5249776132205</v>
+        <v>268.1887294242143</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>37.16446780661687</v>
+        <v>71.43589320912581</v>
       </c>
       <c r="C19">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D19">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="E19">
-        <v>2.147463464140889</v>
+        <v>4.127759113707936</v>
       </c>
       <c r="F19">
-        <v>2.430452250398832</v>
+        <v>4.671707619030093</v>
       </c>
       <c r="G19">
-        <v>138.288725901322</v>
+        <v>265.8124611636188</v>
       </c>
       <c r="I19">
-        <v>186.8985164352092</v>
+        <v>359.2480465610904</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>64.00547233361794</v>
+        <v>123.0284827490501</v>
       </c>
       <c r="C20">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D20">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="E20">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F20">
-        <v>3.717162265315862</v>
+        <v>7.14496459381073</v>
       </c>
       <c r="G20">
-        <v>252.5272386024141</v>
+        <v>485.3966682118259</v>
       </c>
       <c r="H20">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I20">
-        <v>332.4157631012839</v>
+        <v>638.9548500330067</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>210.0824777401815</v>
+        <v>403.8112296682531</v>
       </c>
       <c r="C21">
-        <v>2.204572211721686</v>
+        <v>4.237531017740484</v>
       </c>
       <c r="D21">
-        <v>15.54278267002953</v>
+        <v>29.87564812622442</v>
       </c>
       <c r="E21">
-        <v>21.47463464140888</v>
+        <v>41.27759113707937</v>
       </c>
       <c r="F21">
-        <v>4.432001162491989</v>
+        <v>8.518996246466639</v>
       </c>
       <c r="G21">
-        <v>366.7657513035063</v>
+        <v>704.9808752600328</v>
       </c>
       <c r="H21">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I21">
-        <v>621.5057756882635</v>
+        <v>1194.630862251093</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>469.2014060585378</v>
+        <v>901.8781517652134</v>
       </c>
       <c r="C22">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D22">
-        <v>41.96551320907972</v>
+        <v>80.66424994080587</v>
       </c>
       <c r="E22">
-        <v>46.17046447902911</v>
+        <v>88.74682094472061</v>
       </c>
       <c r="F22">
-        <v>12.29522903142939</v>
+        <v>23.63334442568164</v>
       </c>
       <c r="G22">
-        <v>396.8285178037937</v>
+        <v>762.766192904298</v>
       </c>
       <c r="H22">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I22">
-        <v>972.2390121869415</v>
+        <v>1868.794747976097</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>732.4497196887405</v>
+        <v>1407.882395329855</v>
       </c>
       <c r="C23">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D23">
-        <v>60.61685241311514</v>
+        <v>116.5150276922752</v>
       </c>
       <c r="E23">
-        <v>41.87553755074734</v>
+        <v>80.49130271730475</v>
       </c>
       <c r="F23">
-        <v>13.58193904634642</v>
+        <v>26.10660140046229</v>
       </c>
       <c r="G23">
-        <v>336.7029848032189</v>
+        <v>647.1955576157681</v>
       </c>
       <c r="H23">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I23">
-        <v>1194.33477035212</v>
+        <v>2295.69737295228</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>867.1709154877265</v>
+        <v>1666.837508212935</v>
       </c>
       <c r="C24">
-        <v>6.613716635165055</v>
+        <v>12.71259305322146</v>
       </c>
       <c r="D24">
-        <v>68.38824374812994</v>
+        <v>131.4528517553874</v>
       </c>
       <c r="E24">
-        <v>45.09673274695867</v>
+        <v>86.68294138786663</v>
       </c>
       <c r="F24">
-        <v>18.01394020883841</v>
+        <v>34.62559764692892</v>
       </c>
       <c r="G24">
-        <v>327.6841548531325</v>
+        <v>629.8599623224882</v>
       </c>
       <c r="H24">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I24">
-        <v>1339.992595392416</v>
+        <v>2575.674389945902</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>561.5964024110992</v>
+        <v>1079.475719604568</v>
       </c>
       <c r="C25">
-        <v>4.409144423443371</v>
+        <v>8.475062035480969</v>
       </c>
       <c r="D25">
-        <v>71.49680028213579</v>
+        <v>137.4279813806323</v>
       </c>
       <c r="E25">
-        <v>23.62209810554977</v>
+        <v>45.40535025078728</v>
       </c>
       <c r="F25">
-        <v>16.72723019392139</v>
+        <v>32.15234067214828</v>
       </c>
       <c r="G25">
-        <v>348.7280914033338</v>
+        <v>670.3096846734737</v>
       </c>
       <c r="H25">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I25">
-        <v>1034.608214490872</v>
+        <v>1988.678064979461</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>461.9749817628067</v>
+        <v>887.9878391967725</v>
       </c>
       <c r="C26">
-        <v>5.95234497164855</v>
+        <v>11.44133374789931</v>
       </c>
       <c r="D26">
-        <v>60.61685241311514</v>
+        <v>116.5150276922752</v>
       </c>
       <c r="E26">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F26">
-        <v>20.58736023867247</v>
+        <v>39.57211159649018</v>
       </c>
       <c r="G26">
-        <v>285.5962817527303</v>
+        <v>548.9605176205175</v>
       </c>
       <c r="H26">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I26">
-        <v>851.4162984400724</v>
+        <v>1636.554681432714</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>460.4264622708644</v>
+        <v>885.0113436463928</v>
       </c>
       <c r="C27">
-        <v>6.834173856337223</v>
+        <v>13.1363461549955</v>
       </c>
       <c r="D27">
-        <v>45.07406974308561</v>
+        <v>86.63937956605083</v>
       </c>
       <c r="E27">
-        <v>11.81104905277489</v>
+        <v>22.70267512539364</v>
       </c>
       <c r="F27">
-        <v>22.4459413713304</v>
+        <v>43.14459389339557</v>
       </c>
       <c r="G27">
-        <v>288.602558402759</v>
+        <v>554.7390493849439</v>
       </c>
       <c r="H27">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I27">
-        <v>839.2084785328459</v>
+        <v>1613.089350952357</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>433.0692845798826</v>
+        <v>832.4265889230082</v>
       </c>
       <c r="C28">
-        <v>5.95234497164855</v>
+        <v>11.44133374789931</v>
       </c>
       <c r="D28">
-        <v>48.18262627709154</v>
+        <v>92.6145091912957</v>
       </c>
       <c r="E28">
-        <v>18.25343944519756</v>
+        <v>35.08595246651746</v>
       </c>
       <c r="F28">
-        <v>16.72723019392139</v>
+        <v>32.15234067214828</v>
       </c>
       <c r="G28">
-        <v>225.4707487521555</v>
+        <v>433.3898823319872</v>
       </c>
       <c r="H28">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I28">
-        <v>755.6841218912859</v>
+        <v>1452.542533695227</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>535.2715710480792</v>
+        <v>1028.875295248104</v>
       </c>
       <c r="C29">
-        <v>5.731887750476382</v>
+        <v>11.01758064612526</v>
       </c>
       <c r="D29">
-        <v>57.50829587910923</v>
+        <v>110.5398980670304</v>
       </c>
       <c r="E29">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F29">
-        <v>18.72877910601454</v>
+        <v>35.99962929958481</v>
       </c>
       <c r="G29">
-        <v>285.5962817527303</v>
+        <v>548.9605176205175</v>
       </c>
       <c r="H29">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I29">
-        <v>922.8166638068672</v>
+        <v>1773.797299892241</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>466.6205402386341</v>
+        <v>896.9173258479133</v>
       </c>
       <c r="C30">
-        <v>7.716002741025901</v>
+        <v>14.8313585620917</v>
       </c>
       <c r="D30">
-        <v>54.39973934510338</v>
+        <v>104.5647684417855</v>
       </c>
       <c r="E30">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F30">
-        <v>16.29832685561571</v>
+        <v>31.32792168055474</v>
       </c>
       <c r="G30">
-        <v>252.5272386024141</v>
+        <v>485.3966682118259</v>
       </c>
       <c r="H30">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I30">
-        <v>818.4750762390274</v>
+        <v>1573.236523788789</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>583.7918484622736</v>
+        <v>1122.138822493352</v>
       </c>
       <c r="C31">
-        <v>7.495545519853731</v>
+        <v>14.40760546031765</v>
       </c>
       <c r="D31">
-        <v>77.71391335014764</v>
+        <v>149.3782406311221</v>
       </c>
       <c r="E31">
-        <v>18.25343944519756</v>
+        <v>35.08595246651746</v>
       </c>
       <c r="F31">
-        <v>15.1545846201339</v>
+        <v>29.12947103630528</v>
       </c>
       <c r="G31">
-        <v>225.4707487521555</v>
+        <v>433.3898823319872</v>
       </c>
       <c r="H31">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I31">
-        <v>929.8871920676091</v>
+        <v>1787.387956010194</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>726.2556417209711</v>
+        <v>1395.976413128334</v>
       </c>
       <c r="C32">
-        <v>5.731887750476382</v>
+        <v>11.01758064612526</v>
       </c>
       <c r="D32">
-        <v>104.1366438891978</v>
+        <v>200.1668424457036</v>
       </c>
       <c r="E32">
-        <v>25.76956156969066</v>
+        <v>49.53310936449523</v>
       </c>
       <c r="F32">
-        <v>16.01239129674525</v>
+        <v>30.77830901949236</v>
       </c>
       <c r="G32">
-        <v>180.3765990017243</v>
+        <v>346.7119058655899</v>
       </c>
       <c r="H32">
-        <v>14.04978342493068</v>
+        <v>27.00587113414819</v>
       </c>
       <c r="I32">
-        <v>1072.332508653736</v>
+        <v>2061.190031603888</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>867.1709154877265</v>
+        <v>1666.837508212935</v>
       </c>
       <c r="C33">
-        <v>5.731887750476382</v>
+        <v>11.01758064612526</v>
       </c>
       <c r="D33">
-        <v>68.38824374812994</v>
+        <v>131.4528517553874</v>
       </c>
       <c r="E33">
-        <v>38.65434235453598</v>
+        <v>74.29966404674285</v>
       </c>
       <c r="F33">
-        <v>10.57961567820668</v>
+        <v>20.33566845930746</v>
       </c>
       <c r="G33">
-        <v>138.288725901322</v>
+        <v>265.8124611636188</v>
       </c>
       <c r="H33">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I33">
-        <v>1132.827954756092</v>
+        <v>2177.471697465302</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>899.1736516545354</v>
+        <v>1728.351749587461</v>
       </c>
       <c r="C34">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D34">
-        <v>46.62834801008859</v>
+        <v>89.62694437867329</v>
       </c>
       <c r="E34">
-        <v>48.31792794317002</v>
+        <v>92.87458005842855</v>
       </c>
       <c r="F34">
-        <v>6.433550074585147</v>
+        <v>12.36628487390319</v>
       </c>
       <c r="G34">
-        <v>159.3326624515232</v>
+        <v>306.2621835146045</v>
       </c>
       <c r="H34">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I34">
-        <v>1163.976097189236</v>
+        <v>2237.343276633203</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>603.4064286935428</v>
+        <v>1159.841099464835</v>
       </c>
       <c r="C35">
-        <v>3.527315538754697</v>
+        <v>6.780049628384776</v>
       </c>
       <c r="D35">
-        <v>23.3141740050443</v>
+        <v>44.81347218933664</v>
       </c>
       <c r="E35">
-        <v>39.72807408660644</v>
+        <v>76.36354360359681</v>
       </c>
       <c r="F35">
-        <v>6.719485633455599</v>
+        <v>12.91589753496555</v>
       </c>
       <c r="G35">
-        <v>180.3765990017243</v>
+        <v>346.7119058655899</v>
       </c>
       <c r="H35">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I35">
-        <v>858.0756329180517</v>
+        <v>1649.354959082005</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>512.0437786689436</v>
+        <v>984.2278619924004</v>
       </c>
       <c r="C36">
-        <v>3.968229981099034</v>
+        <v>7.627555831932874</v>
       </c>
       <c r="D36">
-        <v>35.7484001410679</v>
+        <v>68.71399069031615</v>
       </c>
       <c r="E36">
-        <v>33.28568369418377</v>
+        <v>63.980266262473</v>
       </c>
       <c r="F36">
-        <v>5.432775618538568</v>
+        <v>10.44264056018491</v>
       </c>
       <c r="G36">
-        <v>231.4833020522128</v>
+        <v>444.9469458608403</v>
       </c>
       <c r="H36">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I36">
-        <v>824.9728380328166</v>
+        <v>1585.726233584036</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>436.6824967277481</v>
+        <v>839.3717452072281</v>
       </c>
       <c r="C37">
-        <v>4.188687202271202</v>
+        <v>8.051308933706922</v>
       </c>
       <c r="D37">
-        <v>32.63984360706201</v>
+        <v>62.73886106507129</v>
       </c>
       <c r="E37">
-        <v>15.03224424898622</v>
+        <v>28.89431379595554</v>
       </c>
       <c r="F37">
-        <v>3.43122670644541</v>
+        <v>6.595351932748366</v>
       </c>
       <c r="G37">
-        <v>132.2761726012645</v>
+        <v>254.2553976347659</v>
       </c>
       <c r="I37">
-        <v>624.2506710937773</v>
+        <v>1199.906978569476</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>181.6929537212381</v>
+        <v>349.2421445779485</v>
       </c>
       <c r="C38">
-        <v>3.527315538754697</v>
+        <v>6.780049628384776</v>
       </c>
       <c r="D38">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="E38">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F38">
-        <v>2.573420029834059</v>
+        <v>4.946513949561273</v>
       </c>
       <c r="G38">
-        <v>87.18202285083345</v>
+        <v>167.5774211683684</v>
       </c>
       <c r="I38">
-        <v>292.5233277265145</v>
+        <v>562.2753784443779</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>116.6551350596585</v>
+        <v>224.2293314619783</v>
       </c>
       <c r="C39">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D39">
-        <v>4.662834801008859</v>
+        <v>8.962694437867329</v>
       </c>
       <c r="E39">
-        <v>6.442390392422665</v>
+        <v>12.38327734112381</v>
       </c>
       <c r="F39">
-        <v>1.286710014917029</v>
+        <v>2.473256974780636</v>
       </c>
       <c r="G39">
-        <v>84.17574620080472</v>
+        <v>161.798889403942</v>
       </c>
       <c r="I39">
-        <v>215.2069314593613</v>
+        <v>413.6612275356586</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>117.6874813876201</v>
+        <v>226.2136618288985</v>
       </c>
       <c r="C40">
-        <v>3.968229981099034</v>
+        <v>7.627555831932874</v>
       </c>
       <c r="D40">
-        <v>3.108556534005905</v>
+        <v>5.975129625244883</v>
       </c>
       <c r="E40">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F40">
-        <v>2.144516691528382</v>
+        <v>4.12209495796773</v>
       </c>
       <c r="G40">
-        <v>123.2573426511783</v>
+        <v>236.9198023414866</v>
       </c>
       <c r="I40">
-        <v>257.6822493699248</v>
+        <v>495.3054014835083</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>55.74670170992533</v>
+        <v>107.1538398136888</v>
       </c>
       <c r="C41">
-        <v>3.747772759926865</v>
+        <v>7.203802730158825</v>
       </c>
       <c r="D41">
-        <v>1.554278267002953</v>
+        <v>2.987564812622442</v>
       </c>
       <c r="E41">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F41">
-        <v>2.287484470963608</v>
+        <v>4.396901288498912</v>
       </c>
       <c r="G41">
-        <v>126.2636193012071</v>
+        <v>242.6983341059129</v>
       </c>
       <c r="I41">
-        <v>194.968515169378</v>
+        <v>374.7598405351517</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>54.71435538196371</v>
+        <v>105.1695094467686</v>
       </c>
       <c r="C42">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="F42">
-        <v>2.287484470963608</v>
+        <v>4.396901288498912</v>
       </c>
       <c r="G42">
-        <v>111.2322360510634</v>
+        <v>213.8056752837805</v>
       </c>
       <c r="I42">
-        <v>170.6591053368845</v>
+        <v>328.0333701385625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>45.42323843030953</v>
+        <v>87.31053614448712</v>
       </c>
       <c r="C43">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D43">
-        <v>1.554278267002953</v>
+        <v>2.987564812622442</v>
       </c>
       <c r="E43">
-        <v>3.221195196211332</v>
+        <v>6.191638670561904</v>
       </c>
       <c r="F43">
-        <v>2.144516691528382</v>
+        <v>4.12209495796773</v>
       </c>
       <c r="G43">
-        <v>150.313832501437</v>
+        <v>288.926588221325</v>
       </c>
       <c r="I43">
-        <v>204.6411760770387</v>
+        <v>393.3522007229307</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>73.81276244925292</v>
+        <v>141.8796212347917</v>
       </c>
       <c r="C44">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D44">
-        <v>6.217113068011811</v>
+        <v>11.95025925048977</v>
       </c>
       <c r="E44">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F44">
-        <v>3.574194485880636</v>
+        <v>6.870158263279547</v>
       </c>
       <c r="G44">
-        <v>207.4330888519831</v>
+        <v>398.7186917454283</v>
       </c>
       <c r="I44">
-        <v>296.6548291104432</v>
+        <v>570.2167673320494</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>213.1795167240661</v>
+        <v>409.7642207690133</v>
       </c>
       <c r="C45">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D45">
-        <v>20.20561747103839</v>
+        <v>38.83834256409175</v>
       </c>
       <c r="E45">
-        <v>19.32717117726799</v>
+        <v>37.14983202337142</v>
       </c>
       <c r="F45">
-        <v>6.433550074585147</v>
+        <v>12.36628487390319</v>
       </c>
       <c r="G45">
-        <v>435.910114254167</v>
+        <v>837.8871058418425</v>
       </c>
       <c r="H45">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I45">
-        <v>697.3822689870811</v>
+        <v>1340.477295478163</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>483.1380814860192</v>
+        <v>928.6666117186354</v>
       </c>
       <c r="C46">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D46">
-        <v>48.18262627709154</v>
+        <v>92.6145091912957</v>
       </c>
       <c r="E46">
-        <v>51.53912313938132</v>
+        <v>99.06621872899046</v>
       </c>
       <c r="F46">
-        <v>13.58193904634642</v>
+        <v>26.10660140046229</v>
       </c>
       <c r="G46">
-        <v>481.0042640045983</v>
+        <v>924.5650823082397</v>
       </c>
       <c r="H46">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I46">
-        <v>1081.118073493724</v>
+        <v>2078.077255038835</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>700.4469835219319</v>
+        <v>1346.36815395533</v>
       </c>
       <c r="C47">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D47">
-        <v>46.62834801008859</v>
+        <v>89.62694437867329</v>
       </c>
       <c r="E47">
-        <v>42.94926928281777</v>
+        <v>82.55518227415874</v>
       </c>
       <c r="F47">
-        <v>12.58116459029983</v>
+        <v>24.18295708674401</v>
       </c>
       <c r="G47">
-        <v>303.6339416529026</v>
+        <v>583.6317082070766</v>
       </c>
       <c r="H47">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I47">
-        <v>1113.021144622036</v>
+        <v>2139.399924692657</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>792.3258067105122</v>
+        <v>1522.973556611225</v>
       </c>
       <c r="C48">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D48">
-        <v>51.29118281109744</v>
+        <v>98.58963881654057</v>
       </c>
       <c r="E48">
-        <v>34.35941542625422</v>
+        <v>66.04414581932697</v>
       </c>
       <c r="F48">
-        <v>14.43974572295777</v>
+        <v>27.75543938364939</v>
       </c>
       <c r="G48">
-        <v>273.5711751526151</v>
+        <v>525.8463905628115</v>
       </c>
       <c r="H48">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I48">
-        <v>1171.080838837694</v>
+        <v>2250.999696208983</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>568.8228267068308</v>
+        <v>1093.36603217301</v>
       </c>
       <c r="C49">
-        <v>3.747772759926865</v>
+        <v>7.203802730158825</v>
       </c>
       <c r="D49">
-        <v>59.06257414611218</v>
+        <v>113.5274628796528</v>
       </c>
       <c r="E49">
-        <v>23.62209810554977</v>
+        <v>45.40535025078728</v>
       </c>
       <c r="F49">
-        <v>18.15690798827364</v>
+        <v>34.90040397746009</v>
       </c>
       <c r="G49">
-        <v>369.7720279535348</v>
+        <v>710.7594070244595</v>
       </c>
       <c r="H49">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I49">
-        <v>1045.191319578075</v>
+        <v>2009.020440626121</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>340.5073819347765</v>
+        <v>198.4973265232186</v>
       </c>
       <c r="C2">
-        <v>4.597919169716546</v>
+        <v>2.680337376454916</v>
       </c>
       <c r="D2">
-        <v>46.82379617540032</v>
+        <v>27.29573234410933</v>
       </c>
       <c r="E2">
-        <v>6.635276332315562</v>
+        <v>3.868006047985504</v>
       </c>
       <c r="F2">
-        <v>14.13583217984697</v>
+        <v>8.240423100189856</v>
       </c>
       <c r="G2">
-        <v>202.0325918758834</v>
+        <v>117.7740380547786</v>
       </c>
       <c r="H2">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I2">
-        <v>620.1592110266699</v>
+        <v>361.5191679783379</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>349.6779554529261</v>
+        <v>203.8432732562795</v>
       </c>
       <c r="C3">
-        <v>5.449385682627016</v>
+        <v>3.176696149872493</v>
       </c>
       <c r="D3">
-        <v>36.01830475030793</v>
+        <v>20.99671718777642</v>
       </c>
       <c r="E3">
-        <v>9.123504956933896</v>
+        <v>5.31850831598007</v>
       </c>
       <c r="F3">
-        <v>12.25841696846104</v>
+        <v>7.145991907195892</v>
       </c>
       <c r="G3">
-        <v>171.843813779487</v>
+        <v>100.1756185753289</v>
       </c>
       <c r="H3">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I3">
-        <v>586.6969873159135</v>
+        <v>342.012507334548</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>353.2664407426369</v>
+        <v>205.9351654561729</v>
       </c>
       <c r="C4">
-        <v>6.471145498119583</v>
+        <v>3.772326677973586</v>
       </c>
       <c r="D4">
-        <v>38.41952506699515</v>
+        <v>22.39649833362817</v>
       </c>
       <c r="E4">
-        <v>9.123504956933896</v>
+        <v>5.31850831598007</v>
       </c>
       <c r="F4">
-        <v>11.70623602393577</v>
+        <v>6.824100379844727</v>
       </c>
       <c r="G4">
-        <v>190.4215233772695</v>
+        <v>111.0054151780672</v>
       </c>
       <c r="H4">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I4">
-        <v>610.958779482671</v>
+        <v>356.1558156364098</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>413.8719700799743</v>
+        <v>241.2649003877059</v>
       </c>
       <c r="C5">
-        <v>5.789972287791206</v>
+        <v>3.375239659239524</v>
       </c>
       <c r="D5">
-        <v>54.02745712546192</v>
+        <v>31.49507578166461</v>
       </c>
       <c r="E5">
-        <v>12.44114312309167</v>
+        <v>7.252511339972823</v>
       </c>
       <c r="F5">
-        <v>15.24019406889751</v>
+        <v>8.884206154892192</v>
       </c>
       <c r="G5">
-        <v>199.7103781761607</v>
+        <v>116.4203134794363</v>
       </c>
       <c r="H5">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I5">
-        <v>707.2827301284981</v>
+        <v>412.3074519818842</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>405.4988377373159</v>
+        <v>236.3838185879547</v>
       </c>
       <c r="C6">
-        <v>4.938505774880735</v>
+        <v>2.878880885821947</v>
       </c>
       <c r="D6">
-        <v>48.02440633374391</v>
+        <v>27.99562291703522</v>
       </c>
       <c r="E6">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F6">
-        <v>14.79844931327729</v>
+        <v>8.62669293301126</v>
       </c>
       <c r="G6">
-        <v>202.0325918758834</v>
+        <v>117.7740380547786</v>
       </c>
       <c r="H6">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I6">
-        <v>690.7263265254546</v>
+        <v>402.6559670908078</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>461.7184406094512</v>
+        <v>269.1567963862847</v>
       </c>
       <c r="C7">
-        <v>4.76821247229864</v>
+        <v>2.779609131138433</v>
       </c>
       <c r="D7">
-        <v>51.62623680877473</v>
+        <v>30.09529463581287</v>
       </c>
       <c r="E7">
-        <v>11.61173358155223</v>
+        <v>6.769010583974633</v>
       </c>
       <c r="F7">
-        <v>12.14798077955598</v>
+        <v>7.08161360172566</v>
       </c>
       <c r="G7">
-        <v>178.8104548786555</v>
+        <v>104.2367923013558</v>
       </c>
       <c r="H7">
-        <v>7.752019083901018</v>
+        <v>4.519006473715941</v>
       </c>
       <c r="I7">
-        <v>728.4350782141893</v>
+        <v>424.638123114008</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>512.7546758408931</v>
+        <v>298.9081521181021</v>
       </c>
       <c r="C8">
-        <v>3.746452656806074</v>
+        <v>2.183978603037339</v>
       </c>
       <c r="D8">
-        <v>70.83599934227227</v>
+        <v>41.29354380262694</v>
       </c>
       <c r="E8">
-        <v>19.07641945540724</v>
+        <v>11.12051738795833</v>
       </c>
       <c r="F8">
-        <v>13.03147029079642</v>
+        <v>7.596640045487525</v>
       </c>
       <c r="G8">
-        <v>125.3995397850311</v>
+        <v>73.10112706848327</v>
       </c>
       <c r="H8">
-        <v>8.527220992291118</v>
+        <v>4.970907121087535</v>
       </c>
       <c r="I8">
-        <v>753.3717783634975</v>
+        <v>439.174866146783</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>594.4923963287494</v>
+        <v>346.5568077823408</v>
       </c>
       <c r="C9">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D9">
-        <v>58.82989775883631</v>
+        <v>34.29463807336815</v>
       </c>
       <c r="E9">
-        <v>23.22346716310447</v>
+        <v>13.53802116794927</v>
       </c>
       <c r="F9">
-        <v>6.405298956493155</v>
+        <v>3.733941717273531</v>
       </c>
       <c r="G9">
-        <v>109.1440438869716</v>
+        <v>63.62505504108727</v>
       </c>
       <c r="H9">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I9">
-        <v>797.5800179638647</v>
+        <v>464.9458709370745</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>665.8633815352192</v>
+        <v>388.162219313554</v>
       </c>
       <c r="C10">
-        <v>2.213812933567225</v>
+        <v>1.2905328108857</v>
       </c>
       <c r="D10">
-        <v>37.21891490865156</v>
+        <v>21.6966077607023</v>
       </c>
       <c r="E10">
-        <v>34.00579120311725</v>
+        <v>19.82353099592572</v>
       </c>
       <c r="F10">
-        <v>4.307011367297123</v>
+        <v>2.510753913339098</v>
       </c>
       <c r="G10">
-        <v>123.0773260853084</v>
+        <v>71.747402493141</v>
       </c>
       <c r="H10">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I10">
-        <v>868.2366418499408</v>
+        <v>506.1348485822909</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>462.9146023726882</v>
+        <v>269.8540937862492</v>
       </c>
       <c r="C11">
-        <v>2.894986143895603</v>
+        <v>1.687619829619762</v>
       </c>
       <c r="D11">
-        <v>19.20976253349757</v>
+        <v>11.19824916681408</v>
       </c>
       <c r="E11">
-        <v>33.17638166157781</v>
+        <v>19.34003023992751</v>
       </c>
       <c r="F11">
-        <v>4.417447556202174</v>
+        <v>2.575132218809332</v>
       </c>
       <c r="G11">
-        <v>125.3995397850311</v>
+        <v>73.10112706848327</v>
       </c>
       <c r="H11">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I11">
-        <v>649.5631238696727</v>
+        <v>378.6600536046463</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>367.2216613137346</v>
+        <v>214.0703017890917</v>
       </c>
       <c r="C12">
-        <v>3.57615935422398</v>
+        <v>2.084706848353824</v>
       </c>
       <c r="D12">
-        <v>28.81464380024635</v>
+        <v>16.79737375022114</v>
       </c>
       <c r="E12">
-        <v>24.88228624618334</v>
+        <v>14.50502267994565</v>
       </c>
       <c r="F12">
-        <v>2.981777100436469</v>
+        <v>1.738214247696299</v>
       </c>
       <c r="G12">
-        <v>174.1660274792099</v>
+        <v>101.5293431506712</v>
       </c>
       <c r="I12">
-        <v>601.6425552940347</v>
+        <v>350.7249624659798</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>324.9572790126966</v>
+        <v>189.4324603236805</v>
       </c>
       <c r="C13">
-        <v>3.746452656806074</v>
+        <v>2.183978603037339</v>
       </c>
       <c r="D13">
-        <v>21.61098285018477</v>
+        <v>12.59803031266585</v>
       </c>
       <c r="E13">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F13">
-        <v>3.092213289341524</v>
+        <v>1.802592553166532</v>
       </c>
       <c r="G13">
-        <v>102.1774027878032</v>
+        <v>59.56388131506046</v>
       </c>
       <c r="I13">
-        <v>463.8784260122266</v>
+        <v>270.4159506675926</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>206.1385438644958</v>
+        <v>120.1675852605433</v>
       </c>
       <c r="C14">
-        <v>3.065279446477696</v>
+        <v>1.786891584303277</v>
       </c>
       <c r="D14">
-        <v>15.60793205846677</v>
+        <v>9.098577448036442</v>
       </c>
       <c r="E14">
-        <v>12.44114312309167</v>
+        <v>7.252511339972823</v>
       </c>
       <c r="F14">
-        <v>2.540032344816252</v>
+        <v>1.480701025815365</v>
       </c>
       <c r="G14">
-        <v>118.4328986858628</v>
+        <v>69.03995334245646</v>
       </c>
       <c r="I14">
-        <v>358.225829523211</v>
+        <v>208.8262200011277</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>130.7803527805699</v>
+        <v>76.23784906278185</v>
       </c>
       <c r="C15">
-        <v>3.065279446477696</v>
+        <v>1.786891584303277</v>
       </c>
       <c r="D15">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="E15">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F15">
-        <v>1.214798077955599</v>
+        <v>0.7081613601725658</v>
       </c>
       <c r="G15">
-        <v>85.92190688974352</v>
+        <v>50.08780928766445</v>
       </c>
       <c r="I15">
-        <v>232.0488535436325</v>
+        <v>135.2718898176835</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>64.19401462704805</v>
+        <v>37.42162713142644</v>
       </c>
       <c r="C16">
-        <v>2.894986143895603</v>
+        <v>1.687619829619762</v>
       </c>
       <c r="D16">
-        <v>1.200610158343598</v>
+        <v>0.6998905729258803</v>
       </c>
       <c r="E16">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F16">
-        <v>2.208723778101087</v>
+        <v>1.287566109404666</v>
       </c>
       <c r="G16">
-        <v>81.27747949029795</v>
+        <v>47.3803601369799</v>
       </c>
       <c r="H16">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I16">
-        <v>158.3568828968525</v>
+        <v>92.31346971971556</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>45.45414700300294</v>
+        <v>26.49730119864978</v>
       </c>
       <c r="C17">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D17">
-        <v>2.401220316687197</v>
+        <v>1.399781145851761</v>
       </c>
       <c r="E17">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F17">
-        <v>2.319159967006144</v>
+        <v>1.351944414874898</v>
       </c>
       <c r="G17">
-        <v>78.95526579057514</v>
+        <v>46.02663556163763</v>
       </c>
       <c r="I17">
-        <v>133.9800709666681</v>
+        <v>78.10311113715846</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>31.49892643190556</v>
+        <v>18.362164865731</v>
       </c>
       <c r="C18">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D18">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="F18">
-        <v>1.987851400290979</v>
+        <v>1.158809498464199</v>
       </c>
       <c r="G18">
-        <v>69.66641099168396</v>
+        <v>40.61173726026847</v>
       </c>
       <c r="I18">
-        <v>107.7767791144039</v>
+        <v>62.8280138713424</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>28.70788231768609</v>
+        <v>16.73513759914723</v>
       </c>
       <c r="C19">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D19">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="E19">
-        <v>1.65881908307889</v>
+        <v>0.967001511996376</v>
       </c>
       <c r="F19">
-        <v>1.877415211385925</v>
+        <v>1.094431192993966</v>
       </c>
       <c r="G19">
-        <v>106.8218301872487</v>
+        <v>62.27133046574502</v>
       </c>
       <c r="I19">
-        <v>144.3707103002514</v>
+        <v>84.16029003549539</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>49.44135288045937</v>
+        <v>28.82162586519803</v>
       </c>
       <c r="C20">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D20">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="E20">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F20">
-        <v>2.871340911531415</v>
+        <v>1.673835942226065</v>
       </c>
       <c r="G20">
-        <v>195.0659507767151</v>
+        <v>113.7128643287518</v>
       </c>
       <c r="H20">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I20">
-        <v>256.7762481441055</v>
+        <v>149.686619073153</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>162.2792792124755</v>
+        <v>94.60001392851285</v>
       </c>
       <c r="C21">
-        <v>1.702933025820943</v>
+        <v>0.992717546835154</v>
       </c>
       <c r="D21">
-        <v>12.00610158343598</v>
+        <v>6.998905729258805</v>
       </c>
       <c r="E21">
-        <v>16.5881908307889</v>
+        <v>9.670015119963757</v>
       </c>
       <c r="F21">
-        <v>3.423521856056686</v>
+        <v>1.995727469577231</v>
       </c>
       <c r="G21">
-        <v>283.3100713661814</v>
+        <v>165.1543981917584</v>
       </c>
       <c r="H21">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I21">
-        <v>480.0852997831495</v>
+        <v>279.8636786332778</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>362.4370142607868</v>
+        <v>211.2811121892338</v>
       </c>
       <c r="C22">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D22">
-        <v>32.41647427527716</v>
+        <v>18.89704546899877</v>
       </c>
       <c r="E22">
-        <v>35.66461028619614</v>
+        <v>20.79053250792209</v>
       </c>
       <c r="F22">
-        <v>9.497512245834679</v>
+        <v>5.536534270440061</v>
       </c>
       <c r="G22">
-        <v>306.5322083634094</v>
+        <v>178.6916439451813</v>
       </c>
       <c r="H22">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I22">
-        <v>751.0109734857214</v>
+        <v>437.7986450087305</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>565.7845140110634</v>
+        <v>329.8216701831936</v>
       </c>
       <c r="C23">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D23">
-        <v>46.82379617540032</v>
+        <v>27.29573234410933</v>
       </c>
       <c r="E23">
-        <v>32.34697212003836</v>
+        <v>18.85652948392934</v>
       </c>
       <c r="F23">
-        <v>10.49143794598017</v>
+        <v>6.11593901967216</v>
       </c>
       <c r="G23">
-        <v>260.0879343689535</v>
+        <v>151.6171524383356</v>
       </c>
       <c r="H23">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I23">
-        <v>922.5699723079257</v>
+        <v>537.8082319190388</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>669.8505874126754</v>
+        <v>390.4865439801021</v>
       </c>
       <c r="C24">
-        <v>5.108799077462828</v>
+        <v>2.978152640505462</v>
       </c>
       <c r="D24">
-        <v>52.82684696711831</v>
+        <v>30.79518520873874</v>
       </c>
       <c r="E24">
-        <v>34.83520074465669</v>
+        <v>20.3070317519239</v>
       </c>
       <c r="F24">
-        <v>13.91495980203685</v>
+        <v>8.111666489249394</v>
       </c>
       <c r="G24">
-        <v>253.121293269785</v>
+        <v>147.5559787123088</v>
       </c>
       <c r="H24">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I24">
-        <v>1035.084100632466</v>
+        <v>603.3978633144295</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>433.8079994672564</v>
+        <v>252.886523720447</v>
       </c>
       <c r="C25">
-        <v>3.405866051641885</v>
+        <v>1.985435093670308</v>
       </c>
       <c r="D25">
-        <v>55.22806728380554</v>
+        <v>32.19496635459051</v>
       </c>
       <c r="E25">
-        <v>18.24700991386779</v>
+        <v>10.63701663196014</v>
       </c>
       <c r="F25">
-        <v>12.92103410189137</v>
+        <v>7.532261740017293</v>
       </c>
       <c r="G25">
-        <v>269.3767891678446</v>
+        <v>157.0320507397047</v>
       </c>
       <c r="H25">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I25">
-        <v>799.1883812534284</v>
+        <v>465.8834594593627</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>356.8549260323478</v>
+        <v>208.0270576560664</v>
       </c>
       <c r="C26">
-        <v>4.597919169716546</v>
+        <v>2.680337376454916</v>
       </c>
       <c r="D26">
-        <v>46.82379617540032</v>
+        <v>27.29573234410933</v>
       </c>
       <c r="E26">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F26">
-        <v>15.90281120232783</v>
+        <v>9.270475987713588</v>
       </c>
       <c r="G26">
-        <v>220.6103014736659</v>
+        <v>128.6038346575169</v>
       </c>
       <c r="H26">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I26">
-        <v>657.680853286044</v>
+        <v>383.392249357446</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>355.658764269111</v>
+        <v>207.3297602561018</v>
       </c>
       <c r="C27">
-        <v>5.279092380044921</v>
+        <v>3.077424395188978</v>
       </c>
       <c r="D27">
-        <v>34.81769459196437</v>
+        <v>20.29682661485054</v>
       </c>
       <c r="E27">
-        <v>9.123504956933896</v>
+        <v>5.31850831598007</v>
       </c>
       <c r="F27">
-        <v>17.33848165809354</v>
+        <v>10.10739395882663</v>
       </c>
       <c r="G27">
-        <v>222.9325151733887</v>
+        <v>129.9575592328592</v>
       </c>
       <c r="H27">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I27">
-        <v>648.2508606630969</v>
+        <v>377.8950753632936</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>334.5265731185921</v>
+        <v>195.0108395233963</v>
       </c>
       <c r="C28">
-        <v>4.597919169716546</v>
+        <v>2.680337376454916</v>
       </c>
       <c r="D28">
-        <v>37.21891490865156</v>
+        <v>21.6966077607023</v>
       </c>
       <c r="E28">
-        <v>14.09996220617056</v>
+        <v>8.219512851969199</v>
       </c>
       <c r="F28">
-        <v>12.92103410189137</v>
+        <v>7.532261740017293</v>
       </c>
       <c r="G28">
-        <v>174.1660274792099</v>
+        <v>101.5293431506712</v>
       </c>
       <c r="H28">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I28">
-        <v>583.7320462513528</v>
+        <v>340.284107582184</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>413.4732494922287</v>
+        <v>241.0324679210512</v>
       </c>
       <c r="C29">
-        <v>4.42762586713445</v>
+        <v>2.581065621771401</v>
       </c>
       <c r="D29">
-        <v>44.42257585871312</v>
+        <v>25.89595119825758</v>
       </c>
       <c r="E29">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F29">
-        <v>14.46714074656212</v>
+        <v>8.433558016600553</v>
       </c>
       <c r="G29">
-        <v>220.6103014736659</v>
+        <v>128.6038346575169</v>
       </c>
       <c r="H29">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I29">
-        <v>712.8344289286578</v>
+        <v>415.5437911274036</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>360.4434113220585</v>
+        <v>210.1189498559598</v>
       </c>
       <c r="C30">
-        <v>5.960265590373298</v>
+        <v>3.474511413923039</v>
       </c>
       <c r="D30">
-        <v>42.02135554202596</v>
+        <v>24.49617005240582</v>
       </c>
       <c r="E30">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F30">
-        <v>12.5897255351762</v>
+        <v>7.339126823606593</v>
       </c>
       <c r="G30">
-        <v>195.0659507767151</v>
+        <v>113.7128643287518</v>
       </c>
       <c r="H30">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I30">
-        <v>632.2352385319432</v>
+        <v>368.558836725598</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>450.9529847403189</v>
+        <v>262.8811197866045</v>
       </c>
       <c r="C31">
-        <v>5.789972287791206</v>
+        <v>3.375239659239524</v>
       </c>
       <c r="D31">
-        <v>60.03050791717992</v>
+        <v>34.99452864629402</v>
       </c>
       <c r="E31">
-        <v>14.09996220617056</v>
+        <v>8.219512851969199</v>
       </c>
       <c r="F31">
-        <v>11.70623602393577</v>
+        <v>6.824100379844727</v>
       </c>
       <c r="G31">
-        <v>174.1660274792099</v>
+        <v>101.5293431506712</v>
       </c>
       <c r="H31">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I31">
-        <v>718.2960944713864</v>
+        <v>418.7276457693663</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>560.9998669581157</v>
+        <v>327.0324805833354</v>
       </c>
       <c r="C32">
-        <v>4.42762586713445</v>
+        <v>2.581065621771401</v>
       </c>
       <c r="D32">
-        <v>80.44088060902105</v>
+        <v>46.892668386034</v>
       </c>
       <c r="E32">
-        <v>19.90582899694668</v>
+        <v>11.60401814395651</v>
       </c>
       <c r="F32">
-        <v>12.3688531573661</v>
+        <v>7.210370212666127</v>
       </c>
       <c r="G32">
-        <v>139.3328219833679</v>
+        <v>81.22347452053694</v>
       </c>
       <c r="H32">
-        <v>10.85282671746142</v>
+        <v>6.326609063202319</v>
       </c>
       <c r="I32">
-        <v>828.3287042894133</v>
+        <v>482.8706865315028</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>669.8505874126754</v>
+        <v>390.4865439801021</v>
       </c>
       <c r="C33">
-        <v>4.42762586713445</v>
+        <v>2.581065621771401</v>
       </c>
       <c r="D33">
-        <v>52.82684696711831</v>
+        <v>30.79518520873874</v>
       </c>
       <c r="E33">
-        <v>29.85874349542001</v>
+        <v>17.40602721593477</v>
       </c>
       <c r="F33">
-        <v>8.172277978974025</v>
+        <v>4.763994604797261</v>
       </c>
       <c r="G33">
-        <v>106.8218301872487</v>
+        <v>62.27133046574502</v>
       </c>
       <c r="H33">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I33">
-        <v>875.0587195421313</v>
+        <v>510.1117496865756</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>694.5712638529051</v>
+        <v>404.8973569127014</v>
       </c>
       <c r="C34">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D34">
-        <v>36.01830475030793</v>
+        <v>20.99671718777642</v>
       </c>
       <c r="E34">
-        <v>37.32342936927503</v>
+        <v>21.75753401991847</v>
       </c>
       <c r="F34">
-        <v>4.969628500727449</v>
+        <v>2.897023746160497</v>
       </c>
       <c r="G34">
-        <v>123.0773260853084</v>
+        <v>71.747402493141</v>
       </c>
       <c r="H34">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I34">
-        <v>899.1192607030632</v>
+        <v>524.1377395726386</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>466.1043670746531</v>
+        <v>271.7135535194878</v>
       </c>
       <c r="C35">
-        <v>2.724692841313508</v>
+        <v>1.588348074936247</v>
       </c>
       <c r="D35">
-        <v>18.00915237515397</v>
+        <v>10.49835859388821</v>
       </c>
       <c r="E35">
-        <v>30.68815303695947</v>
+        <v>17.88952797193296</v>
       </c>
       <c r="F35">
-        <v>5.190500878537558</v>
+        <v>3.025780357100963</v>
       </c>
       <c r="G35">
-        <v>139.3328219833679</v>
+        <v>81.22347452053694</v>
       </c>
       <c r="H35">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I35">
-        <v>662.8248900983756</v>
+        <v>386.3909436852547</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>395.530823043675</v>
+        <v>230.5730069215842</v>
       </c>
       <c r="C36">
-        <v>3.065279446477696</v>
+        <v>1.786891584303277</v>
       </c>
       <c r="D36">
-        <v>27.61403364190277</v>
+        <v>16.09748317729525</v>
       </c>
       <c r="E36">
-        <v>25.7116957877228</v>
+        <v>14.98852343594383</v>
       </c>
       <c r="F36">
-        <v>4.196575178392068</v>
+        <v>2.446375607868863</v>
       </c>
       <c r="G36">
-        <v>178.8104548786555</v>
+        <v>104.2367923013558</v>
       </c>
       <c r="H36">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I36">
-        <v>637.2544677019962</v>
+        <v>371.4847749704659</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>337.3176172328115</v>
+        <v>196.6378667899801</v>
       </c>
       <c r="C37">
-        <v>3.235572749059791</v>
+        <v>1.886163338986793</v>
       </c>
       <c r="D37">
-        <v>25.21281332521556</v>
+        <v>14.69770203144349</v>
       </c>
       <c r="E37">
-        <v>11.61173358155223</v>
+        <v>6.769010583974633</v>
       </c>
       <c r="F37">
-        <v>2.650468533721306</v>
+        <v>1.545079331285598</v>
       </c>
       <c r="G37">
-        <v>102.1774027878032</v>
+        <v>59.56388131506046</v>
       </c>
       <c r="I37">
-        <v>482.2056082101636</v>
+        <v>281.099703390731</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>140.3496468864653</v>
+        <v>81.81622826249759</v>
       </c>
       <c r="C38">
-        <v>2.724692841313508</v>
+        <v>1.588348074936247</v>
       </c>
       <c r="D38">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="E38">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F38">
-        <v>1.987851400290979</v>
+        <v>1.158809498464199</v>
       </c>
       <c r="G38">
-        <v>67.34419729196115</v>
+        <v>39.25801268492619</v>
       </c>
       <c r="I38">
-        <v>225.9611333935351</v>
+        <v>131.7230793115801</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>90.11085283051463</v>
+        <v>52.52973746398994</v>
       </c>
       <c r="C39">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D39">
-        <v>3.601830475030794</v>
+        <v>2.099671718777642</v>
       </c>
       <c r="E39">
-        <v>4.97645724923667</v>
+        <v>2.901004535989128</v>
       </c>
       <c r="F39">
-        <v>0.9939257001454894</v>
+        <v>0.5794047492320993</v>
       </c>
       <c r="G39">
-        <v>65.02198359223839</v>
+        <v>37.9042881095839</v>
       </c>
       <c r="I39">
-        <v>166.2376895704048</v>
+        <v>96.90755236972436</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>90.90829400600589</v>
+        <v>52.99460239729957</v>
       </c>
       <c r="C40">
-        <v>3.065279446477696</v>
+        <v>1.786891584303277</v>
       </c>
       <c r="D40">
-        <v>2.401220316687197</v>
+        <v>1.399781145851761</v>
       </c>
       <c r="E40">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F40">
-        <v>1.656542833575817</v>
+        <v>0.965674582053499</v>
       </c>
       <c r="G40">
-        <v>95.21076168863476</v>
+        <v>55.50270758903359</v>
       </c>
       <c r="I40">
-        <v>199.0479650821575</v>
+        <v>116.034162590529</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>43.06182347652913</v>
+        <v>25.10270639872084</v>
       </c>
       <c r="C41">
-        <v>2.894986143895603</v>
+        <v>1.687619829619762</v>
       </c>
       <c r="D41">
-        <v>1.200610158343598</v>
+        <v>0.6998905729258803</v>
       </c>
       <c r="E41">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F41">
-        <v>1.766979022480871</v>
+        <v>1.030052887523732</v>
       </c>
       <c r="G41">
-        <v>97.53297538835756</v>
+        <v>56.85643216437588</v>
       </c>
       <c r="I41">
-        <v>150.604421897304</v>
+        <v>87.79420563315705</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>42.26438230103786</v>
+        <v>24.63784146541121</v>
       </c>
       <c r="C42">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="F42">
-        <v>1.766979022480871</v>
+        <v>1.030052887523732</v>
       </c>
       <c r="G42">
-        <v>85.92190688974352</v>
+        <v>50.08780928766445</v>
       </c>
       <c r="I42">
-        <v>131.8264945416653</v>
+        <v>76.84769294211806</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>35.08741172161632</v>
+        <v>20.4540570656244</v>
       </c>
       <c r="C43">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D43">
-        <v>1.200610158343598</v>
+        <v>0.6998905729258803</v>
       </c>
       <c r="E43">
-        <v>2.488228624618335</v>
+        <v>1.450502267994564</v>
       </c>
       <c r="F43">
-        <v>1.656542833575817</v>
+        <v>0.965674582053499</v>
       </c>
       <c r="G43">
-        <v>116.11068498614</v>
+        <v>67.68622876711414</v>
       </c>
       <c r="I43">
-        <v>158.0761180475329</v>
+        <v>92.14979904786412</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>57.01704404762653</v>
+        <v>33.23784273163965</v>
       </c>
       <c r="C44">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D44">
-        <v>4.802440633374394</v>
+        <v>2.799562291703521</v>
       </c>
       <c r="E44">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F44">
-        <v>2.76090472262636</v>
+        <v>1.609457636755832</v>
       </c>
       <c r="G44">
-        <v>160.232745280873</v>
+        <v>93.40699569861751</v>
       </c>
       <c r="I44">
-        <v>229.1525326661507</v>
+        <v>133.5834919108104</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>164.6716027389493</v>
+        <v>95.99460872844178</v>
       </c>
       <c r="C45">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D45">
-        <v>15.60793205846677</v>
+        <v>9.098577448036442</v>
       </c>
       <c r="E45">
-        <v>14.92937174771001</v>
+        <v>8.703013607967385</v>
       </c>
       <c r="F45">
-        <v>4.969628500727449</v>
+        <v>2.897023746160497</v>
       </c>
       <c r="G45">
-        <v>336.7209864598058</v>
+        <v>196.2900634246308</v>
       </c>
       <c r="H45">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I45">
-        <v>538.696483229542</v>
+        <v>314.0308181307096</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>373.2024701299189</v>
+        <v>217.556788788914</v>
       </c>
       <c r="C46">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D46">
-        <v>37.21891490865156</v>
+        <v>21.6966077607023</v>
       </c>
       <c r="E46">
-        <v>39.81165799389336</v>
+        <v>23.20803628791302</v>
       </c>
       <c r="F46">
-        <v>10.49143794598017</v>
+        <v>6.11593901967216</v>
       </c>
       <c r="G46">
-        <v>371.5541919556479</v>
+        <v>216.5959320547652</v>
       </c>
       <c r="H46">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I46">
-        <v>835.1151585670086</v>
+        <v>486.826821118132</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>541.0638375708338</v>
+        <v>315.4108572505946</v>
       </c>
       <c r="C47">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D47">
-        <v>36.01830475030793</v>
+        <v>20.99671718777642</v>
       </c>
       <c r="E47">
-        <v>33.17638166157781</v>
+        <v>19.34003023992751</v>
       </c>
       <c r="F47">
-        <v>9.718384623644793</v>
+        <v>5.665290881380526</v>
       </c>
       <c r="G47">
-        <v>234.5435836720027</v>
+        <v>136.7261821095706</v>
       </c>
       <c r="H47">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I47">
-        <v>859.7588482409742</v>
+        <v>501.1927549435757</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>612.0361021895574</v>
+        <v>356.7838363151529</v>
       </c>
       <c r="C48">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D48">
-        <v>39.62013522533873</v>
+        <v>23.09638890655406</v>
       </c>
       <c r="E48">
-        <v>26.54110532926225</v>
+        <v>15.47202419194202</v>
       </c>
       <c r="F48">
-        <v>11.1540550794105</v>
+        <v>6.502208852493559</v>
       </c>
       <c r="G48">
-        <v>211.3214466747746</v>
+        <v>123.1889363561477</v>
       </c>
       <c r="H48">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I48">
-        <v>904.6073545512729</v>
+        <v>527.3370004826025</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>439.3900876956953</v>
+        <v>256.1405782536146</v>
       </c>
       <c r="C49">
-        <v>2.894986143895603</v>
+        <v>1.687619829619762</v>
       </c>
       <c r="D49">
-        <v>45.62318601705672</v>
+        <v>26.59584177118345</v>
       </c>
       <c r="E49">
-        <v>18.24700991386779</v>
+        <v>10.63701663196014</v>
       </c>
       <c r="F49">
-        <v>14.02539599094191</v>
+        <v>8.176044794719624</v>
       </c>
       <c r="G49">
-        <v>285.6322850659043</v>
+        <v>166.5081227671008</v>
       </c>
       <c r="H49">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I49">
-        <v>807.3633546441419</v>
+        <v>470.6490253429416</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>198.4973265232186</v>
+        <v>307.0717848358019</v>
       </c>
       <c r="C2">
-        <v>2.680337376454916</v>
+        <v>4.597919169716546</v>
       </c>
       <c r="D2">
-        <v>27.29573234410933</v>
+        <v>46.79420146764401</v>
       </c>
       <c r="E2">
-        <v>3.868006047985504</v>
+        <v>6.635276332315562</v>
       </c>
       <c r="F2">
-        <v>8.240423100189856</v>
+        <v>14.08868908072572</v>
       </c>
       <c r="G2">
-        <v>117.7740380547786</v>
+        <v>201.99552077504</v>
       </c>
       <c r="H2">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I2">
-        <v>361.5191679783379</v>
+        <v>586.6098050199745</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>203.8432732562795</v>
+        <v>315.3418680339558</v>
       </c>
       <c r="C3">
-        <v>3.176696149872493</v>
+        <v>5.449385682627016</v>
       </c>
       <c r="D3">
-        <v>20.99671718777642</v>
+        <v>35.9955395904954</v>
       </c>
       <c r="E3">
-        <v>5.31850831598007</v>
+        <v>9.123504956933896</v>
       </c>
       <c r="F3">
-        <v>7.145991907195892</v>
+        <v>12.21753506219184</v>
       </c>
       <c r="G3">
-        <v>100.1756185753289</v>
+        <v>171.8122820385399</v>
       </c>
       <c r="H3">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I3">
-        <v>342.012507334548</v>
+        <v>552.2657210899142</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>205.9351654561729</v>
+        <v>318.5779875462768</v>
       </c>
       <c r="C4">
-        <v>3.772326677973586</v>
+        <v>6.471145498119583</v>
       </c>
       <c r="D4">
-        <v>22.39649833362817</v>
+        <v>38.39524222986176</v>
       </c>
       <c r="E4">
-        <v>5.31850831598007</v>
+        <v>9.123504956933896</v>
       </c>
       <c r="F4">
-        <v>6.824100379844727</v>
+        <v>11.66719564497598</v>
       </c>
       <c r="G4">
-        <v>111.0054151780672</v>
+        <v>190.3865827994631</v>
       </c>
       <c r="H4">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I4">
-        <v>356.1558156364098</v>
+        <v>576.1720624924113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>241.2649003877059</v>
+        <v>373.2324504210333</v>
       </c>
       <c r="C5">
-        <v>3.375239659239524</v>
+        <v>5.789972287791206</v>
       </c>
       <c r="D5">
-        <v>31.49507578166461</v>
+        <v>53.9933093857431</v>
       </c>
       <c r="E5">
-        <v>7.252511339972823</v>
+        <v>12.44114312309167</v>
       </c>
       <c r="F5">
-        <v>8.884206154892192</v>
+        <v>15.18936791515741</v>
       </c>
       <c r="G5">
-        <v>116.4203134794363</v>
+        <v>199.6737331799246</v>
       </c>
       <c r="H5">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I5">
-        <v>412.3074519818842</v>
+        <v>666.521591579862</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>236.3838185879547</v>
+        <v>365.681504892284</v>
       </c>
       <c r="C6">
-        <v>2.878880885821947</v>
+        <v>4.938505774880735</v>
       </c>
       <c r="D6">
-        <v>27.99562291703522</v>
+        <v>47.99405278732718</v>
       </c>
       <c r="E6">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F6">
-        <v>8.62669293301126</v>
+        <v>14.74909638138474</v>
       </c>
       <c r="G6">
-        <v>117.7740380547786</v>
+        <v>201.99552077504</v>
       </c>
       <c r="H6">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I6">
-        <v>402.6559670908078</v>
+        <v>650.7922161012701</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>269.1567963862847</v>
+        <v>416.3807105853145</v>
       </c>
       <c r="C7">
-        <v>2.779609131138433</v>
+        <v>4.76821247229864</v>
       </c>
       <c r="D7">
-        <v>30.09529463581287</v>
+        <v>51.59360674637676</v>
       </c>
       <c r="E7">
-        <v>6.769010583974633</v>
+        <v>11.61173358155223</v>
       </c>
       <c r="F7">
-        <v>7.08161360172566</v>
+        <v>12.10746717874867</v>
       </c>
       <c r="G7">
-        <v>104.2367923013558</v>
+        <v>178.777644823886</v>
       </c>
       <c r="H7">
-        <v>4.519006473715941</v>
+        <v>7.752019083901018</v>
       </c>
       <c r="I7">
-        <v>424.638123114008</v>
+        <v>682.9913944720778</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>298.9081521181021</v>
+        <v>462.4055214272148</v>
       </c>
       <c r="C8">
-        <v>2.183978603037339</v>
+        <v>3.746452656806074</v>
       </c>
       <c r="D8">
-        <v>41.29354380262694</v>
+        <v>70.79122786130759</v>
       </c>
       <c r="E8">
-        <v>11.12051738795833</v>
+        <v>19.07641945540724</v>
       </c>
       <c r="F8">
-        <v>7.596640045487525</v>
+        <v>12.98801024629402</v>
       </c>
       <c r="G8">
-        <v>73.10112706848327</v>
+        <v>125.3765301362318</v>
       </c>
       <c r="H8">
-        <v>4.970907121087535</v>
+        <v>8.527220992291118</v>
       </c>
       <c r="I8">
-        <v>439.174866146783</v>
+        <v>702.9113827755525</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>346.5568077823408</v>
+        <v>536.1171325411952</v>
       </c>
       <c r="C9">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D9">
-        <v>34.29463807336815</v>
+        <v>58.79271466447584</v>
       </c>
       <c r="E9">
-        <v>13.53802116794927</v>
+        <v>23.22346716310447</v>
       </c>
       <c r="F9">
-        <v>3.733941717273531</v>
+        <v>6.38393723970384</v>
       </c>
       <c r="G9">
-        <v>63.62505504108727</v>
+        <v>109.124016970424</v>
       </c>
       <c r="H9">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I9">
-        <v>464.9458709370745</v>
+        <v>739.1261824486132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>388.162219313554</v>
+        <v>600.4799539529149</v>
       </c>
       <c r="C10">
-        <v>1.2905328108857</v>
+        <v>2.213812933567225</v>
       </c>
       <c r="D10">
-        <v>21.6966077607023</v>
+        <v>37.19539091017859</v>
       </c>
       <c r="E10">
-        <v>19.82353099592572</v>
+        <v>34.00579120311725</v>
       </c>
       <c r="F10">
-        <v>2.510753913339098</v>
+        <v>4.292647454283618</v>
       </c>
       <c r="G10">
-        <v>71.747402493141</v>
+        <v>123.0547425411163</v>
       </c>
       <c r="H10">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I10">
-        <v>506.1348485822909</v>
+        <v>802.7927428119581</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>269.8540937862492</v>
+        <v>417.4594170894218</v>
       </c>
       <c r="C11">
-        <v>1.687619829619762</v>
+        <v>2.894986143895603</v>
       </c>
       <c r="D11">
-        <v>11.19824916681408</v>
+        <v>19.19762111493088</v>
       </c>
       <c r="E11">
-        <v>19.34003023992751</v>
+        <v>33.17638166157781</v>
       </c>
       <c r="F11">
-        <v>2.575132218809332</v>
+        <v>4.402715337726787</v>
       </c>
       <c r="G11">
-        <v>73.10112706848327</v>
+        <v>125.3765301362318</v>
       </c>
       <c r="H11">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I11">
-        <v>378.6600536046463</v>
+        <v>604.0580553005649</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>214.0703017890917</v>
+        <v>331.1628967608591</v>
       </c>
       <c r="C12">
-        <v>2.084706848353824</v>
+        <v>3.57615935422398</v>
       </c>
       <c r="D12">
-        <v>16.79737375022114</v>
+        <v>28.79643167239632</v>
       </c>
       <c r="E12">
-        <v>14.50502267994565</v>
+        <v>24.88228624618334</v>
       </c>
       <c r="F12">
-        <v>1.738214247696299</v>
+        <v>2.971832852965581</v>
       </c>
       <c r="G12">
-        <v>101.5293431506712</v>
+        <v>174.1340696336552</v>
       </c>
       <c r="I12">
-        <v>350.7249624659798</v>
+        <v>565.5236765202835</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>189.4324603236805</v>
+        <v>293.0486002824105</v>
       </c>
       <c r="C13">
-        <v>2.183978603037339</v>
+        <v>3.746452656806074</v>
       </c>
       <c r="D13">
-        <v>12.59803031266585</v>
+        <v>21.59732375429725</v>
       </c>
       <c r="E13">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F13">
-        <v>1.802592553166532</v>
+        <v>3.081900736408751</v>
       </c>
       <c r="G13">
-        <v>59.56388131506046</v>
+        <v>102.1586541850778</v>
       </c>
       <c r="I13">
-        <v>270.4159506675926</v>
+        <v>431.9270270303947</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>120.1675852605433</v>
+        <v>185.8970875411118</v>
       </c>
       <c r="C14">
-        <v>1.786891584303277</v>
+        <v>3.065279446477696</v>
       </c>
       <c r="D14">
-        <v>9.098577448036442</v>
+        <v>15.59806715588134</v>
       </c>
       <c r="E14">
-        <v>7.252511339972823</v>
+        <v>12.44114312309167</v>
       </c>
       <c r="F14">
-        <v>1.480701025815365</v>
+        <v>2.531561319192902</v>
       </c>
       <c r="G14">
-        <v>69.03995334245646</v>
+        <v>118.4111673508856</v>
       </c>
       <c r="I14">
-        <v>208.8262200011277</v>
+        <v>337.944305936641</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>76.23784906278185</v>
+        <v>117.9385777823688</v>
       </c>
       <c r="C15">
-        <v>1.786891584303277</v>
+        <v>3.065279446477696</v>
       </c>
       <c r="D15">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="E15">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F15">
-        <v>0.7081613601725658</v>
+        <v>1.210746717874866</v>
       </c>
       <c r="G15">
-        <v>50.08780928766445</v>
+        <v>85.90614101926994</v>
       </c>
       <c r="I15">
-        <v>135.2718898176835</v>
+        <v>219.1849847988959</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>37.42162713142644</v>
+        <v>57.89058238707742</v>
       </c>
       <c r="C16">
-        <v>1.687619829619762</v>
+        <v>2.894986143895603</v>
       </c>
       <c r="D16">
-        <v>0.6998905729258803</v>
+        <v>1.19985131968318</v>
       </c>
       <c r="E16">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F16">
-        <v>1.287566109404666</v>
+        <v>2.201357668863393</v>
       </c>
       <c r="G16">
-        <v>47.3803601369799</v>
+        <v>81.2625658290391</v>
       </c>
       <c r="H16">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I16">
-        <v>92.31346971971556</v>
+        <v>152.0304120477249</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>26.49730119864978</v>
+        <v>40.99084715606723</v>
       </c>
       <c r="C17">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D17">
-        <v>1.399781145851761</v>
+        <v>2.39970263936636</v>
       </c>
       <c r="E17">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F17">
-        <v>1.351944414874898</v>
+        <v>2.311425552306563</v>
       </c>
       <c r="G17">
-        <v>46.02663556163763</v>
+        <v>78.94077823392368</v>
       </c>
       <c r="I17">
-        <v>78.10311113715846</v>
+        <v>129.4930314710605</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>18.362164865731</v>
+        <v>28.4059379414852</v>
       </c>
       <c r="C18">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D18">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="F18">
-        <v>1.158809498464199</v>
+        <v>1.981221901977054</v>
       </c>
       <c r="G18">
-        <v>40.61173726026847</v>
+        <v>69.65362785346213</v>
       </c>
       <c r="I18">
-        <v>62.8280138713424</v>
+        <v>104.6621014714665</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>16.73513759914723</v>
+        <v>25.88895609856879</v>
       </c>
       <c r="C19">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D19">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="E19">
-        <v>0.967001511996376</v>
+        <v>1.65881908307889</v>
       </c>
       <c r="F19">
-        <v>1.094431192993966</v>
+        <v>1.871154018533885</v>
       </c>
       <c r="G19">
-        <v>62.27133046574502</v>
+        <v>106.8022293753086</v>
       </c>
       <c r="I19">
-        <v>84.16029003549539</v>
+        <v>141.5236455603606</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>28.82162586519803</v>
+        <v>44.58653550309069</v>
       </c>
       <c r="C20">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D20">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="E20">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F20">
-        <v>1.673835942226065</v>
+        <v>2.86176496952241</v>
       </c>
       <c r="G20">
-        <v>113.7128643287518</v>
+        <v>195.0301579896939</v>
       </c>
       <c r="H20">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I20">
-        <v>149.686619073153</v>
+        <v>251.8737855217253</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>94.60001392851285</v>
+        <v>146.3445157238541</v>
       </c>
       <c r="C21">
-        <v>0.992717546835154</v>
+        <v>1.702933025820943</v>
       </c>
       <c r="D21">
-        <v>6.998905729258805</v>
+        <v>11.9985131968318</v>
       </c>
       <c r="E21">
-        <v>9.670015119963757</v>
+        <v>16.5881908307889</v>
       </c>
       <c r="F21">
-        <v>1.995727469577231</v>
+        <v>3.41210438673826</v>
       </c>
       <c r="G21">
-        <v>165.1543981917584</v>
+        <v>283.2580866040792</v>
       </c>
       <c r="H21">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I21">
-        <v>279.8636786332778</v>
+        <v>464.0795456765033</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>211.2811121892338</v>
+        <v>326.8480707444307</v>
       </c>
       <c r="C22">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D22">
-        <v>18.89704546899877</v>
+        <v>32.39598563144586</v>
       </c>
       <c r="E22">
-        <v>20.79053250792209</v>
+        <v>35.66461028619614</v>
       </c>
       <c r="F22">
-        <v>5.536534270440061</v>
+        <v>9.465837976112587</v>
       </c>
       <c r="G22">
-        <v>178.6916439451813</v>
+        <v>306.4759625552331</v>
       </c>
       <c r="H22">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I22">
-        <v>437.7986450087305</v>
+        <v>715.3136212476356</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>329.8216701831936</v>
+        <v>510.228176442626</v>
       </c>
       <c r="C23">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D23">
-        <v>27.29573234410933</v>
+        <v>46.79420146764401</v>
       </c>
       <c r="E23">
-        <v>18.85652948392934</v>
+        <v>32.34697212003836</v>
       </c>
       <c r="F23">
-        <v>6.11593901967216</v>
+        <v>10.45644892710112</v>
       </c>
       <c r="G23">
-        <v>151.6171524383356</v>
+        <v>260.0402106529252</v>
       </c>
       <c r="H23">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I23">
-        <v>537.8082319190388</v>
+        <v>866.9013272968247</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>390.4865439801021</v>
+        <v>604.0756422999383</v>
       </c>
       <c r="C24">
-        <v>2.978152640505462</v>
+        <v>5.108799077462828</v>
       </c>
       <c r="D24">
-        <v>30.79518520873874</v>
+        <v>52.79345806605994</v>
       </c>
       <c r="E24">
-        <v>20.3070317519239</v>
+        <v>34.83520074465669</v>
       </c>
       <c r="F24">
-        <v>8.111666489249394</v>
+        <v>13.86855331383938</v>
       </c>
       <c r="G24">
-        <v>147.5559787123088</v>
+        <v>253.0748478675789</v>
       </c>
       <c r="H24">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I24">
-        <v>603.3978633144295</v>
+        <v>969.1829147282666</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>252.886523720447</v>
+        <v>391.2108921561506</v>
       </c>
       <c r="C25">
-        <v>1.985435093670308</v>
+        <v>3.405866051641885</v>
       </c>
       <c r="D25">
-        <v>32.19496635459051</v>
+        <v>55.19316070542629</v>
       </c>
       <c r="E25">
-        <v>10.63701663196014</v>
+        <v>18.24700991386779</v>
       </c>
       <c r="F25">
-        <v>7.532261740017293</v>
+        <v>12.87794236285085</v>
       </c>
       <c r="G25">
-        <v>157.0320507397047</v>
+        <v>269.3273610333867</v>
       </c>
       <c r="H25">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I25">
-        <v>465.8834594593627</v>
+        <v>756.4638474904449</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>208.0270576560664</v>
+        <v>321.8141070585981</v>
       </c>
       <c r="C26">
-        <v>2.680337376454916</v>
+        <v>4.597919169716546</v>
       </c>
       <c r="D26">
-        <v>27.29573234410933</v>
+        <v>46.79420146764401</v>
       </c>
       <c r="E26">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F26">
-        <v>9.270475987713588</v>
+        <v>15.84977521581643</v>
       </c>
       <c r="G26">
-        <v>128.6038346575169</v>
+        <v>220.5698215359633</v>
       </c>
       <c r="H26">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I26">
-        <v>383.392249357446</v>
+        <v>622.516923680324</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>207.3297602561018</v>
+        <v>320.735400554491</v>
       </c>
       <c r="C27">
-        <v>3.077424395188978</v>
+        <v>5.279092380044921</v>
       </c>
       <c r="D27">
-        <v>20.29682661485054</v>
+        <v>34.79568827081224</v>
       </c>
       <c r="E27">
-        <v>5.31850831598007</v>
+        <v>9.123504956933896</v>
       </c>
       <c r="F27">
-        <v>10.10739395882663</v>
+        <v>17.28065770057764</v>
       </c>
       <c r="G27">
-        <v>129.9575592328592</v>
+        <v>222.8916091310788</v>
       </c>
       <c r="H27">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I27">
-        <v>377.8950753632936</v>
+        <v>613.206760627499</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>195.0108395233963</v>
+        <v>301.6782523152668</v>
       </c>
       <c r="C28">
-        <v>2.680337376454916</v>
+        <v>4.597919169716546</v>
       </c>
       <c r="D28">
-        <v>21.6966077607023</v>
+        <v>37.19539091017859</v>
       </c>
       <c r="E28">
-        <v>8.219512851969199</v>
+        <v>14.09996220617056</v>
       </c>
       <c r="F28">
-        <v>7.532261740017293</v>
+        <v>12.87794236285085</v>
       </c>
       <c r="G28">
-        <v>101.5293431506712</v>
+        <v>174.1340696336552</v>
       </c>
       <c r="H28">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I28">
-        <v>340.284107582184</v>
+        <v>550.7851518649594</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>241.0324679210512</v>
+        <v>372.8728815863309</v>
       </c>
       <c r="C29">
-        <v>2.581065621771401</v>
+        <v>4.42762586713445</v>
       </c>
       <c r="D29">
-        <v>25.89595119825758</v>
+        <v>44.39449882827765</v>
       </c>
       <c r="E29">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F29">
-        <v>8.433558016600553</v>
+        <v>14.41889273105523</v>
       </c>
       <c r="G29">
-        <v>128.6038346575169</v>
+        <v>220.5698215359633</v>
       </c>
       <c r="H29">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I29">
-        <v>415.5437911274036</v>
+        <v>672.117256039115</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>210.1189498559598</v>
+        <v>325.0502265709191</v>
       </c>
       <c r="C30">
-        <v>3.474511413923039</v>
+        <v>5.960265590373298</v>
       </c>
       <c r="D30">
-        <v>24.49617005240582</v>
+        <v>41.99479618891133</v>
       </c>
       <c r="E30">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F30">
-        <v>7.339126823606593</v>
+        <v>12.54773871252134</v>
       </c>
       <c r="G30">
-        <v>113.7128643287518</v>
+        <v>195.0301579896939</v>
       </c>
       <c r="H30">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I30">
-        <v>368.558836725598</v>
+        <v>596.737714818013</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>262.8811197866045</v>
+        <v>406.6723520483514</v>
       </c>
       <c r="C31">
-        <v>3.375239659239524</v>
+        <v>5.789972287791206</v>
       </c>
       <c r="D31">
-        <v>34.99452864629402</v>
+        <v>59.99256598415898</v>
       </c>
       <c r="E31">
-        <v>8.219512851969199</v>
+        <v>14.09996220617056</v>
       </c>
       <c r="F31">
-        <v>6.824100379844727</v>
+        <v>11.66719564497598</v>
       </c>
       <c r="G31">
-        <v>101.5293431506712</v>
+        <v>174.1340696336552</v>
       </c>
       <c r="H31">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I31">
-        <v>418.7276457693663</v>
+        <v>673.9065216218836</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>327.0324805833354</v>
+        <v>505.9133504261985</v>
       </c>
       <c r="C32">
-        <v>2.581065621771401</v>
+        <v>4.42762586713445</v>
       </c>
       <c r="D32">
-        <v>46.892668386034</v>
+        <v>80.39003841877306</v>
       </c>
       <c r="E32">
-        <v>11.60401814395651</v>
+        <v>19.90582899694668</v>
       </c>
       <c r="F32">
-        <v>7.210370212666127</v>
+        <v>12.327602945635</v>
       </c>
       <c r="G32">
-        <v>81.22347452053694</v>
+        <v>139.3072557069243</v>
       </c>
       <c r="H32">
-        <v>6.326609063202319</v>
+        <v>10.85282671746142</v>
       </c>
       <c r="I32">
-        <v>482.8706865315028</v>
+        <v>773.1245290790733</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>390.4865439801021</v>
+        <v>604.0756422999383</v>
       </c>
       <c r="C33">
-        <v>2.581065621771401</v>
+        <v>4.42762586713445</v>
       </c>
       <c r="D33">
-        <v>30.79518520873874</v>
+        <v>52.79345806605994</v>
       </c>
       <c r="E33">
-        <v>17.40602721593477</v>
+        <v>29.85874349542001</v>
       </c>
       <c r="F33">
-        <v>4.763994604797261</v>
+        <v>8.145023374794556</v>
       </c>
       <c r="G33">
-        <v>62.27133046574502</v>
+        <v>106.8022293753086</v>
       </c>
       <c r="H33">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I33">
-        <v>510.1117496865756</v>
+        <v>809.2035301122161</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>404.8973569127014</v>
+        <v>626.3689100514836</v>
       </c>
       <c r="C34">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D34">
-        <v>20.99671718777642</v>
+        <v>35.9955395904954</v>
       </c>
       <c r="E34">
-        <v>21.75753401991847</v>
+        <v>37.32342936927503</v>
       </c>
       <c r="F34">
-        <v>2.897023746160497</v>
+        <v>4.953054754942634</v>
       </c>
       <c r="G34">
-        <v>71.747402493141</v>
+        <v>123.0547425411163</v>
       </c>
       <c r="H34">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I34">
-        <v>524.1377395726386</v>
+        <v>830.8549844518523</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>271.7135535194878</v>
+        <v>420.3359677670402</v>
       </c>
       <c r="C35">
-        <v>1.588348074936247</v>
+        <v>2.724692841313508</v>
       </c>
       <c r="D35">
-        <v>10.49835859388821</v>
+        <v>17.9977697952477</v>
       </c>
       <c r="E35">
-        <v>17.88952797193296</v>
+        <v>30.68815303695947</v>
       </c>
       <c r="F35">
-        <v>3.025780357100963</v>
+        <v>5.173190521828976</v>
       </c>
       <c r="G35">
-        <v>81.22347452053694</v>
+        <v>139.3072557069243</v>
       </c>
       <c r="H35">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I35">
-        <v>386.3909436852547</v>
+        <v>617.0022315777042</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>230.5730069215842</v>
+        <v>356.6922840247255</v>
       </c>
       <c r="C36">
-        <v>1.786891584303277</v>
+        <v>3.065279446477696</v>
       </c>
       <c r="D36">
-        <v>16.09748317729525</v>
+        <v>27.59658035271314</v>
       </c>
       <c r="E36">
-        <v>14.98852343594383</v>
+        <v>25.7116957877228</v>
       </c>
       <c r="F36">
-        <v>2.446375607868863</v>
+        <v>4.182579570840447</v>
       </c>
       <c r="G36">
-        <v>104.2367923013558</v>
+        <v>178.777644823886</v>
       </c>
       <c r="H36">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I36">
-        <v>371.4847749704659</v>
+        <v>598.351669731536</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>196.6378667899801</v>
+        <v>304.1952341581832</v>
       </c>
       <c r="C37">
-        <v>1.886163338986793</v>
+        <v>3.235572749059791</v>
       </c>
       <c r="D37">
-        <v>14.69770203144349</v>
+        <v>25.19687771334678</v>
       </c>
       <c r="E37">
-        <v>6.769010583974633</v>
+        <v>11.61173358155223</v>
       </c>
       <c r="F37">
-        <v>1.545079331285598</v>
+        <v>2.641629202636071</v>
       </c>
       <c r="G37">
-        <v>59.56388131506046</v>
+        <v>102.1586541850778</v>
       </c>
       <c r="I37">
-        <v>281.099703390731</v>
+        <v>449.0397015898558</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>81.81622826249759</v>
+        <v>126.5682298152251</v>
       </c>
       <c r="C38">
-        <v>1.588348074936247</v>
+        <v>2.724692841313508</v>
       </c>
       <c r="D38">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="E38">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F38">
-        <v>1.158809498464199</v>
+        <v>1.981221901977054</v>
       </c>
       <c r="G38">
-        <v>39.25801268492619</v>
+        <v>67.33184025834667</v>
       </c>
       <c r="I38">
-        <v>131.7230793115801</v>
+        <v>212.1584532743852</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>52.52973746398994</v>
+        <v>81.26255664272978</v>
       </c>
       <c r="C39">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D39">
-        <v>2.099671718777642</v>
+        <v>3.59955395904954</v>
       </c>
       <c r="E39">
-        <v>2.901004535989128</v>
+        <v>4.97645724923667</v>
       </c>
       <c r="F39">
-        <v>0.5794047492320993</v>
+        <v>0.9906109509885271</v>
       </c>
       <c r="G39">
-        <v>37.9042881095839</v>
+        <v>65.01005266323129</v>
       </c>
       <c r="I39">
-        <v>96.90755236972436</v>
+        <v>157.3718711884746</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>52.99460239729957</v>
+        <v>81.98169431213447</v>
       </c>
       <c r="C40">
-        <v>1.786891584303277</v>
+        <v>3.065279446477696</v>
       </c>
       <c r="D40">
-        <v>1.399781145851761</v>
+        <v>2.39970263936636</v>
       </c>
       <c r="E40">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F40">
-        <v>0.965674582053499</v>
+        <v>1.651018251647545</v>
       </c>
       <c r="G40">
-        <v>55.50270758903359</v>
+        <v>95.19329139973154</v>
       </c>
       <c r="I40">
-        <v>116.034162590529</v>
+        <v>190.0968528401337</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>25.10270639872084</v>
+        <v>38.83343414785317</v>
       </c>
       <c r="C41">
-        <v>1.687619829619762</v>
+        <v>2.894986143895603</v>
       </c>
       <c r="D41">
-        <v>0.6998905729258803</v>
+        <v>1.19985131968318</v>
       </c>
       <c r="E41">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F41">
-        <v>1.030052887523732</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G41">
-        <v>56.85643216437588</v>
+        <v>97.51507899484693</v>
       </c>
       <c r="I41">
-        <v>87.79420563315705</v>
+        <v>146.3514844490668</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>24.63784146541121</v>
+        <v>38.11429647844848</v>
       </c>
       <c r="C42">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="F42">
-        <v>1.030052887523732</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G42">
-        <v>50.08780928766445</v>
+        <v>85.90614101926994</v>
       </c>
       <c r="I42">
-        <v>76.84769294211806</v>
+        <v>127.6547499612122</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>20.4540570656244</v>
+        <v>31.64205745380628</v>
       </c>
       <c r="C43">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D43">
-        <v>0.6998905729258803</v>
+        <v>1.19985131968318</v>
       </c>
       <c r="E43">
-        <v>1.450502267994564</v>
+        <v>2.488228624618335</v>
       </c>
       <c r="F43">
-        <v>0.965674582053499</v>
+        <v>1.651018251647545</v>
       </c>
       <c r="G43">
-        <v>67.68622876711414</v>
+        <v>116.0893797557702</v>
       </c>
       <c r="I43">
-        <v>92.14979904786412</v>
+        <v>154.6031751287643</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>33.23784273163965</v>
+        <v>51.41834336243523</v>
       </c>
       <c r="C44">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D44">
-        <v>2.799562291703521</v>
+        <v>4.79940527873272</v>
       </c>
       <c r="E44">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F44">
-        <v>1.609457636755832</v>
+        <v>2.751697086079242</v>
       </c>
       <c r="G44">
-        <v>93.40699569861751</v>
+        <v>160.2033440629628</v>
       </c>
       <c r="I44">
-        <v>133.5834919108104</v>
+        <v>223.5121877718603</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>95.99460872844178</v>
+        <v>148.5019287320681</v>
       </c>
       <c r="C45">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D45">
-        <v>9.098577448036442</v>
+        <v>15.59806715588134</v>
       </c>
       <c r="E45">
-        <v>8.703013607967385</v>
+        <v>14.92937174771001</v>
       </c>
       <c r="F45">
-        <v>2.897023746160497</v>
+        <v>4.953054754942634</v>
       </c>
       <c r="G45">
-        <v>196.2900634246308</v>
+        <v>336.6592012917333</v>
       </c>
       <c r="H45">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I45">
-        <v>314.0308181307096</v>
+        <v>522.438585406218</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>217.556788788914</v>
+        <v>336.5564292813939</v>
       </c>
       <c r="C46">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D46">
-        <v>21.6966077607023</v>
+        <v>37.19539091017859</v>
       </c>
       <c r="E46">
-        <v>23.20803628791302</v>
+        <v>39.81165799389336</v>
       </c>
       <c r="F46">
-        <v>6.11593901967216</v>
+        <v>10.45644892710112</v>
       </c>
       <c r="G46">
-        <v>216.5959320547652</v>
+        <v>371.4860152184644</v>
       </c>
       <c r="H46">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I46">
-        <v>486.826821118132</v>
+        <v>798.342427963948</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>315.4108572505946</v>
+        <v>487.934908691081</v>
       </c>
       <c r="C47">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D47">
-        <v>20.99671718777642</v>
+        <v>35.9955395904954</v>
       </c>
       <c r="E47">
-        <v>19.34003023992751</v>
+        <v>33.17638166157781</v>
       </c>
       <c r="F47">
-        <v>5.665290881380526</v>
+        <v>9.685973742998931</v>
       </c>
       <c r="G47">
-        <v>136.7261821095706</v>
+        <v>234.5005471066557</v>
       </c>
       <c r="H47">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I47">
-        <v>501.1927549435757</v>
+        <v>806.5317067554161</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>356.7838363151529</v>
+        <v>551.938161268098</v>
       </c>
       <c r="C48">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D48">
-        <v>23.09638890655406</v>
+        <v>39.59509354954493</v>
       </c>
       <c r="E48">
-        <v>15.47202419194202</v>
+        <v>26.54110532926225</v>
       </c>
       <c r="F48">
-        <v>6.502208852493559</v>
+        <v>11.11685622776014</v>
       </c>
       <c r="G48">
-        <v>123.1889363561477</v>
+        <v>211.2826711555016</v>
       </c>
       <c r="H48">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I48">
-        <v>527.3370004826025</v>
+        <v>844.4083975830964</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>256.1405782536146</v>
+        <v>396.2448558419835</v>
       </c>
       <c r="C49">
-        <v>1.687619829619762</v>
+        <v>2.894986143895603</v>
       </c>
       <c r="D49">
-        <v>26.59584177118345</v>
+        <v>45.59435014796084</v>
       </c>
       <c r="E49">
-        <v>10.63701663196014</v>
+        <v>18.24700991386779</v>
       </c>
       <c r="F49">
-        <v>8.176044794719624</v>
+        <v>13.97862119728255</v>
       </c>
       <c r="G49">
-        <v>166.5081227671008</v>
+        <v>285.5798741991945</v>
       </c>
       <c r="H49">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I49">
-        <v>470.6490253429416</v>
+        <v>764.090101260965</v>
       </c>
     </row>
   </sheetData>
